--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R683ec104d3784cbd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R8fc1ae8c3a0c40af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R8fc1ae8c3a0c40af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R55d967f24213487b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R55d967f24213487b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R4af188ff403e4da5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R4af188ff403e4da5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R6a2f6dc399c947c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R6a2f6dc399c947c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R497974b402f642e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R497974b402f642e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="Rd1d564f9f90d4685"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="Rd1d564f9f90d4685"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R323bf7ea20914d6f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R323bf7ea20914d6f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R503032bdea05417d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R503032bdea05417d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R9f4c11c76dbd4ee5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R9f4c11c76dbd4ee5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="Rac1120d4b3d44ef2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="Rac1120d4b3d44ef2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R63b2ba66d96c4947"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R63b2ba66d96c4947"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R7cd5737039224cbe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/087_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R7cd5737039224cbe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R7ea3e5996f6d492f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
